--- a/archiv/ergebnisse.xlsx
+++ b/archiv/ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/26v87ygt7k8gyqgt_students_rwth-aachen_de/Documents/4. Semester/Institusprojekt/Matlab/IC_Institutsprojekt/archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{252B2C6C-1013-475C-9C3D-7D9F15729E7B}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEDA5F6-243D-4AE8-9001-D7F7E62E4097}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
+    <workbookView xWindow="33825" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,19 +1080,25 @@
         <v>0.8</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="e">
+        <v>10.29</v>
+      </c>
+      <c r="C49">
+        <v>24.49</v>
+      </c>
+      <c r="D49">
+        <v>42.05</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F49" t="e">
+        <v>0,582401902497027</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H49" t="e">
+        <v>0,244708680142687</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0,420171498570845</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,13 +1145,16 @@
       <c r="C52">
         <v>29.43</v>
       </c>
-      <c r="E52" t="e">
+      <c r="D52">
+        <v>40.01</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>0,735566108472882</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0,296175956010997</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="7"/>

--- a/archiv/ergebnisse.xlsx
+++ b/archiv/ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/26v87ygt7k8gyqgt_students_rwth-aachen_de/Documents/4. Semester/Institusprojekt/Matlab/IC_Institutsprojekt/archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEDA5F6-243D-4AE8-9001-D7F7E62E4097}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888A8965-4FD9-4F6F-BAEC-A2159C6B47D9}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
+    <workbookView xWindow="34590" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Epsilon-Greedy</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>E/D</t>
+  </si>
+  <si>
+    <t>Epsilon 0,6 Reward 0,9 und Discount 0,2</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFECC10-46DB-4C1F-8B59-37FD36CDE990}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.8</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>0,420171498570845</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.7</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.6</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>0,402650356778797</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.4</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.3</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.2</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.1</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1253,6 +1256,246 @@
       <c r="H57" t="str">
         <f t="shared" si="7"/>
         <v>0,387317654063709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="e">
+        <f>IMDIV(C61,D61)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <f>IMDIV(B61,D61)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <f>IMDIV(B61,C61)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.9</v>
+      </c>
+      <c r="E62" t="e">
+        <f t="shared" ref="E62:E71" si="8">IMDIV(C62,D62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" t="e">
+        <f t="shared" ref="F62:F71" si="9">IMDIV(B62,D62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" ref="H62:H71" si="10">IMDIV(B62,C62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.8</v>
+      </c>
+      <c r="B63">
+        <v>13.32</v>
+      </c>
+      <c r="C63">
+        <v>23.59</v>
+      </c>
+      <c r="D63">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="8"/>
+        <v>0,6030163599182</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="9"/>
+        <v>0,340490797546012</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="10"/>
+        <v>0,564646036456126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.7</v>
+      </c>
+      <c r="E64" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.6</v>
+      </c>
+      <c r="E65" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.5</v>
+      </c>
+      <c r="B66">
+        <v>15.21</v>
+      </c>
+      <c r="C66">
+        <v>34.24</v>
+      </c>
+      <c r="D66">
+        <v>41.56</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="8"/>
+        <v>0,823869104908566</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="9"/>
+        <v>0,365976900866218</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="10"/>
+        <v>0,444217289719626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.4</v>
+      </c>
+      <c r="E67" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.3</v>
+      </c>
+      <c r="E68" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.2</v>
+      </c>
+      <c r="E69" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.1</v>
+      </c>
+      <c r="B70">
+        <v>9.4359999999999999</v>
+      </c>
+      <c r="C70">
+        <v>57.99</v>
+      </c>
+      <c r="D70">
+        <v>36.235999999999997</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="8"/>
+        <v>1,60034220112595</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="9"/>
+        <v>0,260404018103543</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="10"/>
+        <v>0,162717709949991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/archiv/ergebnisse.xlsx
+++ b/archiv/ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/26v87ygt7k8gyqgt_students_rwth-aachen_de/Documents/4. Semester/Institusprojekt/Matlab/IC_Institutsprojekt/archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888A8965-4FD9-4F6F-BAEC-A2159C6B47D9}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{D92E0FC1-9115-4016-A3B1-B9402C0DF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D036038F-4699-47D8-894E-836928F87D3D}"/>
   <bookViews>
-    <workbookView xWindow="34590" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
+    <workbookView xWindow="31650" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{5038BB25-9BB9-4FD3-9E47-D65F269F9479}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>Epsilon-Greedy</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>Epsilon 0,6 Reward 0,9 und Discount 0,2</t>
+  </si>
+  <si>
+    <t>Neuere Simu</t>
+  </si>
+  <si>
+    <t>100 CS 3 BS</t>
+  </si>
+  <si>
+    <t>Alles = 0</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Learning 0,7</t>
+  </si>
+  <si>
+    <t>Reward 0,9 und Discount 0,2</t>
   </si>
 </sst>
 </file>
@@ -437,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFECC10-46DB-4C1F-8B59-37FD36CDE990}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1379,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.6</v>
       </c>
@@ -1378,7 +1396,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.5</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>0,444217289719626</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.4</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.3</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.2</v>
       </c>
@@ -1455,7 +1473,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.1</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>0,162717709949991</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1496,6 +1514,352 @@
       <c r="H71" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>2.347</v>
+      </c>
+      <c r="C78">
+        <v>335.4</v>
+      </c>
+      <c r="D78">
+        <v>99.87</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IMDIV(C78,D78)</f>
+        <v>3,35836587563833</v>
+      </c>
+      <c r="F78" t="str">
+        <f>IMDIV(B78,D78)</f>
+        <v>0,0235005507159307</v>
+      </c>
+      <c r="H78" t="str">
+        <f>IMDIV(B78,C78)</f>
+        <v>0,00699761478831246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.9</v>
+      </c>
+      <c r="E79" t="e">
+        <f t="shared" ref="E79:E88" si="11">IMDIV(C79,D79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F79" t="e">
+        <f t="shared" ref="F79:F88" si="12">IMDIV(B79,D79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" ref="H79:H88" si="13">IMDIV(B79,C79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.8</v>
+      </c>
+      <c r="B80">
+        <v>1.423</v>
+      </c>
+      <c r="C80">
+        <v>399.8</v>
+      </c>
+      <c r="D80">
+        <v>99.7</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="11"/>
+        <v>4,01003009027081</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="12"/>
+        <v>0,0142728184553661</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="13"/>
+        <v>0,00355927963981991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.7</v>
+      </c>
+      <c r="E81" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F81" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H81" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.6</v>
+      </c>
+      <c r="B82">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="C82">
+        <v>403.2</v>
+      </c>
+      <c r="D82">
+        <v>101.4</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="11"/>
+        <v>3,97633136094675</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="12"/>
+        <v>0,0192209072978304</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="13"/>
+        <v>0,00483382936507937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.5</v>
+      </c>
+      <c r="E83" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H83" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.4</v>
+      </c>
+      <c r="B84">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="C84">
+        <v>364.9</v>
+      </c>
+      <c r="D84">
+        <v>105.6</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="11"/>
+        <v>3,45549242424242</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="12"/>
+        <v>0,0194412878787879</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="13"/>
+        <v>0,0056261989586188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.3</v>
+      </c>
+      <c r="E85" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F85" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H85" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.2</v>
+      </c>
+      <c r="B86">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="C86">
+        <v>410.5</v>
+      </c>
+      <c r="D86">
+        <v>100.2</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="11"/>
+        <v>4,09680638722555</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="12"/>
+        <v>0,0210179640718563</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="13"/>
+        <v>0,00513032886723508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.1</v>
+      </c>
+      <c r="E87" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H87" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="C91">
+        <v>347.9</v>
+      </c>
+      <c r="E91" t="e">
+        <f>IMDIV(C91,D91)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F91" t="e">
+        <f>IMDIV(B91,D91)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H91" t="str">
+        <f>IMDIV(B91,C91)</f>
+        <v>0,00798217878700776</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="C92">
+        <v>287.5</v>
+      </c>
+      <c r="E92" t="e">
+        <f t="shared" ref="E92" si="14">IMDIV(C92,D92)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F92" t="e">
+        <f t="shared" ref="F92" si="15">IMDIV(B92,D92)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" ref="H92" si="16">IMDIV(B92,C92)</f>
+        <v>0,0110017391304348</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
